--- a/Durchläufe/Gewichtung/Nachbearbeitung_ruben_variate A.xlsx
+++ b/Durchläufe/Gewichtung/Nachbearbeitung_ruben_variate A.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thkoelnde.sharepoint.com/sites/MasterprojektLoG/Freigegebene Dokumente/General/Nachbearbeitung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\Gewichtung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{1A514D04-41AB-3545-89BB-A960AC0D5E0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{101E4DA8-2F4E-4E43-B164-414602653CE1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EB7335-EC5E-4103-9452-66FCFF8E362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{CFC985D8-2FDB-1B4E-B9E5-4FFD8E7FE4E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CFC985D8-2FDB-1B4E-B9E5-4FFD8E7FE4E8}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="4" r:id="rId1"/>
     <sheet name="History" sheetId="2" r:id="rId2"/>
     <sheet name="new List" sheetId="3" r:id="rId3"/>
-    <sheet name="NAchbearbeitung" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId4"/>
+    <sheet name="NAchbearbeitung" sheetId="1" r:id="rId5"/>
+    <sheet name="Vergleich Grid Resolution 30_60" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +32,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="71">
   <si>
     <t>mid-value</t>
   </si>
@@ -227,11 +231,39 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>Verbesserte Werte</t>
+  </si>
+  <si>
+    <t>Anzahl der Verbesserungen</t>
+  </si>
+  <si>
+    <t>Verbesserter Wert</t>
+  </si>
+  <si>
+    <t>Default Wert</t>
+  </si>
+  <si>
+    <t>Relative Change</t>
+  </si>
+  <si>
+    <t>Nicht verbesserte Werte</t>
+  </si>
+  <si>
+    <t>Werte</t>
+  </si>
+  <si>
+    <t>Grid Resolution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -289,11 +321,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -311,6 +350,3033 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Anzahl Verbesserungen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NAchbearbeitung!$I$2:$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>hsid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lpd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lufdt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>alic1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>palt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sd</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>uildt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fspd</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>imef</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>faipm</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>amti</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>pptd</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ppgf1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>nruf1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NAchbearbeitung!$J$2:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBFA-42E8-AC21-D401D7C3831F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1096548591"/>
+        <c:axId val="1096546511"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1096548591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1096546511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1096546511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1096548591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Relative Change, normale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Resolution</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NAchbearbeitung!$I$2:$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>hsid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lpd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lufdt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>alic1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>palt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sd</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>uildt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fspd</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>imef</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>faipm</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>amti</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>pptd</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ppgf1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>nruf1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NAchbearbeitung!$M$2:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.1547643999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14447030000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.29252545000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94040999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.556557142857141E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12068965517241433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.56861428571428574</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1101799999999928E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4487220000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7819999999999928E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30143000000000009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4925291500000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47622300000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9134999999999911E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22D8-406D-B4E5-32FA15C3B89A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="882848191"/>
+        <c:axId val="882846943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="882848191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="882846943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="882846943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="882848191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Relative Change</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Vergleich Grid Resolution 30_60'!$J$13:$J$36</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>lyf1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hsid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ieat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lpd</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sad</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lfpf</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lufdt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>alic1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>palt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>alai1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sd</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>alln</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>uildt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fspd</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>imef</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>imti</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>frpm</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>faipm</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>amti</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>pptd</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ppgf1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>nri</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>nruf1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vergleich Grid Resolution 30_60'!$K$13:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1547643999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14447030000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.29252545000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94040999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.556557142857141E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12068965517241433</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.56861428571428574</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1101799999999928E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4487220000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7819999999999928E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30143000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4925291500000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.47622300000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9134999999999911E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-152D-4E67-9EAD-AE188F61B83D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>60</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Vergleich Grid Resolution 30_60'!$J$13:$J$36</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>lyf1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hsid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ieat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lpd</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sad</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lfpf</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lufdt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>alic1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>palt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>alai1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sd</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>alln</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>uildt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fspd</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>imef</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>imti</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>frpm</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>faipm</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>amti</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>pptd</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ppgf1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>nri</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>nruf1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vergleich Grid Resolution 30_60'!$L$13:$L$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-2.4845000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78817729999999986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.5427999999999933E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13204399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.9210399999999949E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5186666666666699E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99832999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1150000000000049E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1638499999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.50118571428571435</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43674485099999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50000280000000008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1100504999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.11476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.4299799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.97909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65499999999999992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1414430000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1049688000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49038500000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.2645791439241579E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.4503000000000044E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-152D-4E67-9EAD-AE188F61B83D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1142020671"/>
+        <c:axId val="1142021087"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1142020671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1142021087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1142021087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1142020671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,8 +3433,8 @@
       <xdr:rowOff>60036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>320963</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>942158</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>110836</xdr:rowOff>
     </xdr:to>
@@ -412,7 +3478,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>428337</xdr:colOff>
+      <xdr:colOff>362076</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -445,6 +3511,119 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215347</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116784</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C73CC0A-8C17-0ED9-0E5F-998AB41813E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>998053</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>131692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>153227</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>91936</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FDB914-CE21-DDA0-677D-76D1088F7B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249DD734-B146-2201-48DD-897DA40F2E04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -753,17 +3932,17 @@
       <selection activeCell="A10" sqref="A10:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -771,7 +3950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -779,7 +3958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -787,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
@@ -795,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -803,7 +3982,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
@@ -811,7 +3990,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -819,7 +3998,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -827,7 +4006,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -835,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
@@ -843,7 +4022,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -851,7 +4030,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -859,7 +4038,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -867,7 +4046,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -875,7 +4054,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -883,7 +4062,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -900,22 +4079,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8F2C1A-3DE6-C74F-8AF5-466F5BECCC87}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
       <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1"/>
     <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
@@ -935,7 +4114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -958,7 +4137,7 @@
         <v>0.46551399999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -981,7 +4160,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1004,7 +4183,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1027,7 +4206,7 @@
         <v>0.46551799999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1050,7 +4229,7 @@
         <v>0.46552399999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1073,7 +4252,7 @@
         <v>0.41458600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1096,7 +4275,7 @@
         <v>0.229687</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1119,7 +4298,7 @@
         <v>0.224138</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1142,7 +4321,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1165,7 +4344,7 @@
         <v>3.7900000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1188,7 +4367,7 @@
         <v>0.29310900000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1211,7 +4390,7 @@
         <v>5.1728000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1234,7 +4413,7 @@
         <v>4.6119999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1257,7 +4436,7 @@
         <v>0.15503800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1280,7 +4459,7 @@
         <v>1.7242E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1303,7 +4482,7 @@
         <v>0.12069000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1326,7 +4505,7 @@
         <v>0.155172</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1349,7 +4528,7 @@
         <v>8.1829999999999993E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1372,7 +4551,7 @@
         <v>1.949E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1395,7 +4574,7 @@
         <v>1.9220999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1418,7 +4597,7 @@
         <v>1.3698999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1441,7 +4620,7 @@
         <v>3.3519E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1464,7 +4643,7 @@
         <v>0.15517300000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1487,7 +4666,7 @@
         <v>1.2048E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1510,7 +4689,7 @@
         <v>6.8087999999999996E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1533,7 +4712,7 @@
         <v>1.6667000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1556,7 +4735,7 @@
         <v>1.6091000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1579,7 +4758,7 @@
         <v>1.6129000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1602,7 +4781,7 @@
         <v>1.6128E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1625,7 +4804,7 @@
         <v>1.1105E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1648,7 +4827,7 @@
         <v>1.6948999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1671,7 +4850,7 @@
         <v>5.2999999999999998E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1694,7 +4873,7 @@
         <v>1.6071999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1717,7 +4896,7 @@
         <v>0.25862600000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1740,7 +4919,7 @@
         <v>1.6948999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1763,7 +4942,7 @@
         <v>1.6071999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1786,7 +4965,7 @@
         <v>0.18966</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1809,7 +4988,7 @@
         <v>1.4611000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -1832,7 +5011,7 @@
         <v>2.9850999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1855,7 +5034,7 @@
         <v>2.3050000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -1878,7 +5057,7 @@
         <v>2.7394000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -1901,7 +5080,7 @@
         <v>8.4209999999999993E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -1924,7 +5103,7 @@
         <v>1.1323E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -1947,7 +5126,7 @@
         <v>1.152E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -1970,7 +5149,7 @@
         <v>1.7160999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -1993,7 +5172,7 @@
         <v>4.9820999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2016,7 +5195,7 @@
         <v>1.1103999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -2039,7 +5218,7 @@
         <v>1.0727E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2062,7 +5241,7 @@
         <v>9.8999999999999994E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -2085,7 +5264,7 @@
         <v>1.1559999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -2108,7 +5287,7 @@
         <v>1.7160000000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -2131,7 +5310,7 @@
         <v>8.463E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -2154,7 +5333,7 @@
         <v>3.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -2177,7 +5356,7 @@
         <v>3.4286999999999998E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -2200,7 +5379,7 @@
         <v>1.2272999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -2223,7 +5402,7 @@
         <v>1.7860999999999998E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -2246,7 +5425,7 @@
         <v>1.155E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -2269,7 +5448,7 @@
         <v>4.5960000000000003E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -2292,7 +5471,7 @@
         <v>1.5878E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -2315,7 +5494,7 @@
         <v>0.46393400000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -2338,7 +5517,7 @@
         <v>1.7160000000000002E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -2361,7 +5540,7 @@
         <v>5.6779999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -2384,7 +5563,7 @@
         <v>1.6029999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -2407,7 +5586,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -2430,7 +5609,7 @@
         <v>1.3932E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -2453,7 +5632,7 @@
         <v>1.6130000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -2476,7 +5655,7 @@
         <v>1.1559999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -2499,7 +5678,7 @@
         <v>8.6120000000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -2522,7 +5701,7 @@
         <v>1.6948999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -2545,7 +5724,7 @@
         <v>1.8221999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -2568,7 +5747,7 @@
         <v>1.5873000000000002E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -2591,7 +5770,7 @@
         <v>5.0576000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -2614,7 +5793,7 @@
         <v>1.6145E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -2637,7 +5816,7 @@
         <v>1.8206E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -2660,7 +5839,7 @@
         <v>2.8982000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -2683,7 +5862,7 @@
         <v>1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -2706,7 +5885,7 @@
         <v>4.9681000000000003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -2729,7 +5908,7 @@
         <v>8.2190000000000006E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -2752,7 +5931,7 @@
         <v>1.6007E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -2775,7 +5954,7 @@
         <v>1.2290000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -2798,7 +5977,7 @@
         <v>1.6399E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -2821,7 +6000,7 @@
         <v>1.7159000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -2844,7 +6023,7 @@
         <v>0.11944200000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -2867,7 +6046,7 @@
         <v>5.2599999999999999E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -2890,7 +6069,7 @@
         <v>1.1762E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -2913,7 +6092,7 @@
         <v>0.154247</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -2936,7 +6115,7 @@
         <v>2.2039999999999998E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -2959,7 +6138,7 @@
         <v>1.538E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -2982,7 +6161,7 @@
         <v>1.163E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -3005,7 +6184,7 @@
         <v>1.7160000000000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -3028,7 +6207,7 @@
         <v>6.7848000000000006E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -3051,7 +6230,7 @@
         <v>8.7670000000000005E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -3074,7 +6253,7 @@
         <v>1.6132000000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -3097,7 +6276,7 @@
         <v>1.6128E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -3120,7 +6299,7 @@
         <v>2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -3143,7 +6322,7 @@
         <v>7.8740000000000008E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -3166,7 +6345,7 @@
         <v>1.6945000000000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -3189,7 +6368,7 @@
         <v>1.1590000000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -3212,7 +6391,7 @@
         <v>1.2019999999999999E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -3235,7 +6414,7 @@
         <v>1.6071999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -3258,7 +6437,7 @@
         <v>1.7156999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -3281,7 +6460,7 @@
         <v>1.695E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -3304,7 +6483,7 @@
         <v>1.6071999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -3327,7 +6506,7 @@
         <v>8.7679999999999998E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -3350,7 +6529,7 @@
         <v>1.6952999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -3373,7 +6552,7 @@
         <v>5.6620000000000004E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -3396,7 +6575,7 @@
         <v>1.6071999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -3419,7 +6598,7 @@
         <v>1.157E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -3442,7 +6621,7 @@
         <v>1.7160000000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -3465,7 +6644,7 @@
         <v>1.6952999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -3488,7 +6667,7 @@
         <v>1.6071999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -3511,7 +6690,7 @@
         <v>8.7659999999999995E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -3534,7 +6713,7 @@
         <v>1.6948000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -3557,7 +6736,7 @@
         <v>6.0499999999999996E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -3580,7 +6759,7 @@
         <v>1.6071999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -3603,7 +6782,7 @@
         <v>1.126E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -3626,7 +6805,7 @@
         <v>1.1590000000000001E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -3658,16 +6837,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7314089A-10DC-8444-8556-A094CA2BEC3E}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
@@ -3675,7 +6854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3686,7 +6865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3697,7 +6876,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3708,7 +6887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3719,7 +6898,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3730,7 +6909,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3741,7 +6920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3752,7 +6931,7 @@
         <v>4.0000000000000002E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3763,7 +6942,7 @@
         <v>43.095287999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3774,7 +6953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3785,7 +6964,7 @@
         <v>22.889406000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3796,7 +6975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3807,7 +6986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3818,7 +6997,7 @@
         <v>14.149490999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3829,7 +7008,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3840,7 +7019,7 @@
         <v>3.8808199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -3851,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -3862,7 +7041,7 @@
         <v>14.357918</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -3873,7 +7052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -3884,7 +7063,7 @@
         <v>3586206896.5517259</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -3895,7 +7074,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -3906,7 +7085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -3917,7 +7096,7 @@
         <v>3.0197000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -3928,7 +7107,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3939,7 +7118,7 @@
         <v>10.211017999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3950,7 +7129,7 @@
         <v>4.8974440000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3961,7 +7140,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -3972,7 +7151,7 @@
         <v>0.102782</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -3983,7 +7162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3994,7 +7173,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -4005,7 +7184,7 @@
         <v>1.4300000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -4016,7 +7195,7 @@
         <v>1.3014300000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -4027,7 +7206,7 @@
         <v>89.850583</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -4038,7 +7217,7 @@
         <v>1.4762230000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -4049,7 +7228,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -4066,15 +7245,851 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C5CD3F-8B6A-184B-ACE9-5409D0CBD995}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713ED331-09D0-4D10-893F-04835A2C33C2}">
+  <dimension ref="P10:P29"/>
   <sheetViews>
-    <sheetView zoomScale="44" workbookViewId="0">
-      <selection activeCell="Z46" sqref="Z46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P29" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C5CD3F-8B6A-184B-ACE9-5409D0CBD995}">
+  <dimension ref="I1:P23"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIF(History!B2:B122,I2)</f>
+        <v>13</v>
+      </c>
+      <c r="K2" s="1">
+        <v>43.095287999999996</v>
+      </c>
+      <c r="L2" s="3">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <f>(K2-L2)/L2</f>
+        <v>1.1547643999999999</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(History!B3:B123,I3)</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>22.889406000000001</v>
+      </c>
+      <c r="L3" s="3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M16" si="0">(K3-L3)/L3</f>
+        <v>0.14447030000000005</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(History!B4:B124,I4)</f>
+        <v>11</v>
+      </c>
+      <c r="K4" s="1">
+        <v>14.149490999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>-0.29252545000000002</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(History!B5:B125,I5)</f>
+        <v>20</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.8808199999999999</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.94040999999999997</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="6" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(History!B6:B126,I6)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>14.357918</v>
+      </c>
+      <c r="L6" s="3">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>2.556557142857141E-2</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <f>COUNTIF(History!B7:B127,I7)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3586206896.5517259</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3200000000</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0.12068965517241433</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <f>COUNTIF(History!B8:B128,I8)</f>
+        <v>6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3.0197000000000002E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-0.56861428571428574</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4.0000000000000002E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <f>COUNTIF(History!B9:B129,I9)</f>
+        <v>15</v>
+      </c>
+      <c r="K9" s="1">
+        <v>10.211017999999999</v>
+      </c>
+      <c r="L9" s="3">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>2.1101799999999928E-2</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f>COUNTIF(History!B10:B130,I10)</f>
+        <v>8</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4.8974440000000001</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1.4487220000000001</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <f>COUNTIF(History!B11:B131,I11)</f>
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.102782</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>2.7819999999999928E-2</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <f>COUNTIF(History!B12:B132,I12)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.4300000000000001E-3</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <f>COUNTIF(History!B13:B133,I13)</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.3014300000000001</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0.30143000000000009</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <f>COUNTIF(History!B14:B134,I14)</f>
+        <v>21</v>
+      </c>
+      <c r="K14" s="1">
+        <v>89.850583</v>
+      </c>
+      <c r="L14" s="3">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>3.4925291500000002</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <f>COUNTIF(History!B15:B135,I15)</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.4762230000000001</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0.47622300000000006</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <f>COUNTIF(History!B16:B136,I16)</f>
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.0291349999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>2.9134999999999911E-2</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+      <c r="O17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L18" s="5"/>
+      <c r="O18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L19" s="3"/>
+      <c r="O19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L20" s="3"/>
+      <c r="O20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L21" s="3"/>
+      <c r="O21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L22" s="6"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB965185-BB5F-45E0-A356-B7C54C6339B5}">
+  <dimension ref="J11:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="11" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>-2.4845000000000006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>1.1547643999999999</v>
+      </c>
+      <c r="L14">
+        <v>0.78817729999999986</v>
+      </c>
+    </row>
+    <row r="15" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>-2.5427999999999933E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>0.14447030000000005</v>
+      </c>
+      <c r="L16">
+        <v>0.13204399999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>-0.29252545000000002</v>
+      </c>
+      <c r="L17">
+        <v>-9.9210399999999949E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>3.5186666666666699E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0.94040999999999997</v>
+      </c>
+      <c r="L19">
+        <v>0.99832999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>2.556557142857141E-2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>-1.1150000000000049E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <v>0.12068965517241433</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>-1.1638499999999996E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>-0.56861428571428574</v>
+      </c>
+      <c r="L24">
+        <v>-0.50118571428571435</v>
+      </c>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.43674485099999993</v>
+      </c>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>2.1101799999999928E-2</v>
+      </c>
+      <c r="L26">
+        <v>0.50000280000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>1.4487220000000001</v>
+      </c>
+      <c r="L27">
+        <v>3.1100504999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>2.7819999999999928E-2</v>
+      </c>
+      <c r="L28">
+        <v>-0.11476</v>
+      </c>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>-7.4299799999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>-0.97909999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="L31">
+        <v>0.65499999999999992</v>
+      </c>
+    </row>
+    <row r="32" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>0.30143000000000009</v>
+      </c>
+      <c r="L32">
+        <v>1.1414430000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>3.4925291500000002</v>
+      </c>
+      <c r="L33">
+        <v>3.1049688000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>0.47622300000000006</v>
+      </c>
+      <c r="L34">
+        <v>0.49038500000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>-9.2645791439241579E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36">
+        <v>2.9134999999999911E-2</v>
+      </c>
+      <c r="L36">
+        <v>-1.4503000000000044E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K11:L11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4087,15 +8102,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100F8F9D82A9436CD428A02A14BF983FEC8" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="dff4f22761ca3726f381d3eb338afb59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56e96472-7d18-4a1b-a443-b2a26447b6c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d524ddcf0e014d2aca1a54e386f235d" ns2:_="">
     <xsd:import namespace="56e96472-7d18-4a1b-a443-b2a26447b6c0"/>
@@ -4241,6 +8247,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E4E5C08-F1E6-4456-9EFD-FE35DC844BA1}">
   <ds:schemaRefs>
@@ -4258,13 +8273,27 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1386F040-2D0E-43E5-9C3E-17ADFAE32F40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56e96472-7d18-4a1b-a443-b2a26447b6c0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15A29E67-16D5-493D-A9D3-E55D6DD08628}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1386F040-2D0E-43E5-9C3E-17ADFAE32F40}"/>
 </file>